--- a/rapp/static/fich/quickB.xlsx
+++ b/rapp/static/fich/quickB.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="72">
   <si>
     <t>ESIH</t>
   </si>
@@ -58,6 +58,9 @@
     <t>Amount</t>
   </si>
   <si>
+    <t>01/10/2015</t>
+  </si>
+  <si>
     <t>Deposit</t>
   </si>
   <si>
@@ -79,6 +82,9 @@
     <t>87 908,79</t>
   </si>
   <si>
+    <t>08/10/2015</t>
+  </si>
+  <si>
     <t>Journal Entry</t>
   </si>
   <si>
@@ -86,6 +92,9 @@
   </si>
   <si>
     <t>10/30/2015</t>
+  </si>
+  <si>
+    <t>03/11/2015</t>
   </si>
   <si>
     <t>Expense</t>
@@ -164,6 +173,9 @@
     <t>Bill Payment (Check)</t>
   </si>
   <si>
+    <t>02/12/2015</t>
+  </si>
+  <si>
     <t>Office Star</t>
   </si>
   <si>
@@ -182,6 +194,9 @@
     <t>Frais divers</t>
   </si>
   <si>
+    <t>03/12/2015</t>
+  </si>
+  <si>
     <t>Georges Harry ROUZIER</t>
   </si>
   <si>
@@ -191,7 +206,13 @@
     <t>Premil SOUFFRANCE</t>
   </si>
   <si>
+    <t>04/12/2015</t>
+  </si>
+  <si>
     <t>DigiPub</t>
+  </si>
+  <si>
+    <t>10/12/2015</t>
   </si>
   <si>
     <t>Marc STEED</t>
@@ -305,7 +326,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -324,6 +345,10 @@
     </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -349,13 +374,13 @@
   </sheetPr>
   <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J17" activeCellId="0" sqref="J17"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="13.9030612244898"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="13.6326530612245"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -444,143 +469,143 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2"/>
-      <c r="B6" s="4" t="n">
-        <v>42014</v>
+      <c r="B6" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2"/>
-      <c r="B7" s="4" t="n">
-        <v>42226</v>
+      <c r="B7" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D7" s="2" t="n">
         <v>1</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J7" s="2"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2"/>
-      <c r="B8" s="4" t="n">
-        <v>42226</v>
+      <c r="B8" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D8" s="2" t="n">
         <v>2</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J8" s="2"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2"/>
       <c r="B9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="D9" s="2" t="n">
         <v>3</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J9" s="2"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2"/>
       <c r="B10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="D10" s="2" t="n">
         <v>4</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J10" s="2"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2"/>
-      <c r="B11" s="4" t="n">
-        <v>42074</v>
+      <c r="B11" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="J11" s="2" t="n">
         <v>-304.86</v>
@@ -588,55 +613,55 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2"/>
-      <c r="B12" s="4" t="n">
-        <v>42074</v>
+      <c r="B12" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2"/>
-      <c r="B13" s="4" t="n">
-        <v>42074</v>
+      <c r="B13" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="J13" s="2" t="n">
         <v>-299.99</v>
@@ -645,28 +670,28 @@
     <row r="14" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2"/>
       <c r="B14" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D14" s="2" t="n">
         <v>1</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>39</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="J14" s="2" t="n">
         <v>311.1</v>
@@ -675,68 +700,68 @@
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2"/>
       <c r="B15" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D15" s="2" t="n">
         <v>5</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J15" s="2"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2"/>
       <c r="B16" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D16" s="2" t="n">
         <v>6</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J16" s="2"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2"/>
       <c r="B17" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J17" s="2" t="n">
         <v>-714.85</v>
@@ -745,24 +770,24 @@
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2"/>
       <c r="B18" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G18" s="2"/>
       <c r="H18" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="J18" s="2" t="n">
         <v>-117.91</v>
@@ -771,26 +796,26 @@
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2"/>
       <c r="B19" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="J19" s="2" t="n">
         <v>-554.99</v>
@@ -799,26 +824,26 @@
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2"/>
       <c r="B20" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D20" s="2" t="n">
         <v>1</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G20" s="2"/>
       <c r="H20" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="J20" s="2" t="n">
         <v>-311.1</v>
@@ -826,27 +851,27 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2"/>
-      <c r="B21" s="4" t="n">
-        <v>42047</v>
+      <c r="B21" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="J21" s="2" t="n">
         <v>-10</v>
@@ -854,27 +879,27 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2"/>
-      <c r="B22" s="4" t="n">
-        <v>42047</v>
+      <c r="B22" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="J22" s="2" t="n">
         <v>-80</v>
@@ -882,25 +907,25 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2"/>
-      <c r="B23" s="4" t="n">
-        <v>42047</v>
+      <c r="B23" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="G23" s="2"/>
       <c r="H23" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="J23" s="2" t="n">
         <v>-93.57</v>
@@ -908,47 +933,47 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2"/>
-      <c r="B24" s="4" t="n">
-        <v>42047</v>
+      <c r="B24" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D24" s="2" t="n">
         <v>8</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
       <c r="I24" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J24" s="2"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2"/>
-      <c r="B25" s="4" t="n">
-        <v>42075</v>
+      <c r="B25" s="4" t="s">
+        <v>57</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="G25" s="2"/>
       <c r="H25" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="J25" s="2" t="n">
         <v>-232.5</v>
@@ -956,25 +981,25 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2"/>
-      <c r="B26" s="4" t="n">
-        <v>42075</v>
+      <c r="B26" s="4" t="s">
+        <v>57</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="G26" s="2"/>
       <c r="H26" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="J26" s="2" t="n">
         <v>-440</v>
@@ -982,25 +1007,25 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2"/>
-      <c r="B27" s="4" t="n">
-        <v>42106</v>
+      <c r="B27" s="4" t="s">
+        <v>61</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="G27" s="2"/>
       <c r="H27" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="J27" s="2" t="n">
         <v>-77</v>
@@ -1008,47 +1033,47 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2"/>
-      <c r="B28" s="4" t="n">
-        <v>42289</v>
+      <c r="B28" s="4" t="s">
+        <v>63</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D28" s="2" t="n">
         <v>7</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
       <c r="I28" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J28" s="2"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2"/>
-      <c r="B29" s="4" t="n">
-        <v>42289</v>
+      <c r="B29" s="4" t="s">
+        <v>63</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="G29" s="2"/>
       <c r="H29" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="J29" s="2" t="n">
         <v>-660</v>
@@ -1056,25 +1081,25 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2"/>
-      <c r="B30" s="4" t="n">
-        <v>42289</v>
+      <c r="B30" s="4" t="s">
+        <v>63</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="G30" s="2"/>
       <c r="H30" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="J30" s="2" t="n">
         <v>-300</v>
@@ -1082,25 +1107,25 @@
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2"/>
-      <c r="B31" s="4" t="n">
-        <v>42289</v>
+      <c r="B31" s="4" t="s">
+        <v>63</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G31" s="2"/>
       <c r="H31" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="J31" s="2" t="n">
         <v>-30.77</v>
@@ -1109,26 +1134,26 @@
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2"/>
       <c r="B32" s="2" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="J32" s="2" t="n">
         <v>-150</v>
@@ -1137,24 +1162,24 @@
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2"/>
       <c r="B33" s="2" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G33" s="2"/>
       <c r="H33" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="J33" s="2" t="n">
         <v>-88.52</v>
@@ -1163,24 +1188,24 @@
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2"/>
       <c r="B34" s="2" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="G34" s="2"/>
       <c r="H34" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="J34" s="2" t="n">
         <v>-564.6</v>
@@ -1189,44 +1214,44 @@
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2"/>
       <c r="B35" s="2" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D35" s="2" t="n">
         <v>9</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
       <c r="I35" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J35" s="2"/>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2"/>
       <c r="B36" s="2" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D36" s="2" t="n">
         <v>10</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
       <c r="I36" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J36" s="2"/>
     </row>
@@ -1256,7 +1281,7 @@
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
